--- a/trunk/贵金属数据/金/现货黄金年线 1975.xlsx
+++ b/trunk/贵金属数据/金/现货黄金年线 1975.xlsx
@@ -463,7 +463,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J37"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -502,1046 +502,1049 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>20131231</v>
+        <v>19751231</v>
       </c>
       <c r="B2">
-        <v>1673.2</v>
+        <v>175</v>
       </c>
       <c r="C2">
-        <v>1696.51</v>
+        <v>185.25</v>
       </c>
       <c r="D2">
-        <v>1180.1400000000001</v>
+        <v>128.75</v>
       </c>
       <c r="E2">
-        <v>1266.3599999999999</v>
-      </c>
-      <c r="F2">
-        <v>7104059</v>
-      </c>
-      <c r="G2">
-        <v>10261787648</v>
+        <v>140.25</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-406.84</v>
+        <v>-34.75</v>
       </c>
       <c r="J2" s="1">
-        <v>-0.2432</v>
+        <v>-0.1986</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>20121231</v>
+        <v>19761231</v>
       </c>
       <c r="B3">
-        <v>1560.09</v>
+        <v>140.35</v>
       </c>
       <c r="C3">
-        <v>1795.75</v>
+        <v>140.35</v>
       </c>
       <c r="D3">
-        <v>1526.88</v>
+        <v>103.5</v>
       </c>
       <c r="E3">
-        <v>1675.76</v>
-      </c>
-      <c r="F3">
-        <v>12952427</v>
-      </c>
-      <c r="G3">
-        <v>21637009408</v>
+        <v>134.5</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>115.67</v>
+        <v>-5.85</v>
       </c>
       <c r="J3" s="1">
-        <v>7.4099999999999999E-2</v>
+        <v>-4.1700000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>20111231</v>
+        <v>19771231</v>
       </c>
       <c r="B4">
-        <v>1418.49</v>
+        <v>135.69999999999999</v>
       </c>
       <c r="C4">
-        <v>1920.78</v>
+        <v>167.95</v>
       </c>
       <c r="D4">
-        <v>1307.95</v>
+        <v>121</v>
       </c>
       <c r="E4">
-        <v>1564.73</v>
-      </c>
-      <c r="F4">
-        <v>8958501</v>
-      </c>
-      <c r="G4">
-        <v>14514679808</v>
+        <v>164.95</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>146.24</v>
+        <v>29.25</v>
       </c>
       <c r="J4" s="1">
-        <v>0.1031</v>
+        <v>0.2155</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>20101231</v>
+        <v>19781231</v>
       </c>
       <c r="B5">
-        <v>1096.8499999999999</v>
+        <v>169.2</v>
       </c>
       <c r="C5">
-        <v>1430.85</v>
+        <v>242.75</v>
       </c>
       <c r="D5">
-        <v>1044.2</v>
+        <v>160.9</v>
       </c>
       <c r="E5">
-        <v>1418.47</v>
-      </c>
-      <c r="F5">
-        <v>7762754</v>
-      </c>
-      <c r="G5">
-        <v>9373114368</v>
+        <v>226</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>321.62</v>
+        <v>56.8</v>
       </c>
       <c r="J5" s="1">
-        <v>0.29320000000000002</v>
+        <v>0.3357</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>20091231</v>
+        <v>19791231</v>
       </c>
       <c r="B6">
-        <v>880.47</v>
+        <v>226.8</v>
       </c>
       <c r="C6">
-        <v>1226.6500000000001</v>
+        <v>512</v>
       </c>
       <c r="D6">
-        <v>810.1</v>
+        <v>216.85</v>
       </c>
       <c r="E6">
-        <v>1096.4000000000001</v>
-      </c>
-      <c r="F6">
-        <v>13642564</v>
-      </c>
-      <c r="G6">
-        <v>13508929536</v>
+        <v>512</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>215.93</v>
+        <v>285.2</v>
       </c>
       <c r="J6" s="1">
-        <v>0.2452</v>
+        <v>1.2575000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>20081231</v>
+        <v>19801231</v>
       </c>
       <c r="B7">
-        <v>832.95</v>
+        <v>559.5</v>
       </c>
       <c r="C7">
-        <v>1032.0899999999999</v>
+        <v>850</v>
       </c>
       <c r="D7">
-        <v>681.75</v>
+        <v>481.5</v>
       </c>
       <c r="E7">
-        <v>880.15</v>
-      </c>
-      <c r="F7">
-        <v>9691620</v>
-      </c>
-      <c r="G7">
-        <v>8153780736</v>
+        <v>589.75</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>47.2</v>
+        <v>30.25</v>
       </c>
       <c r="J7" s="1">
-        <v>5.67E-2</v>
+        <v>5.4100000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>20071231</v>
+        <v>19811231</v>
       </c>
       <c r="B8">
-        <v>636.29999999999995</v>
+        <v>597.5</v>
       </c>
       <c r="C8">
-        <v>845.5</v>
+        <v>599.25</v>
       </c>
       <c r="D8">
-        <v>601.5</v>
+        <v>391.25</v>
       </c>
       <c r="E8">
-        <v>832.8</v>
-      </c>
-      <c r="F8">
-        <v>2570368</v>
-      </c>
-      <c r="G8">
-        <v>1803042688</v>
+        <v>397.5</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>196.5</v>
+        <v>-200</v>
       </c>
       <c r="J8" s="1">
-        <v>0.30880000000000002</v>
+        <v>-0.3347</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>20061231</v>
+        <v>19821231</v>
       </c>
       <c r="B9">
-        <v>517</v>
+        <v>395</v>
       </c>
       <c r="C9">
-        <v>730</v>
+        <v>481</v>
       </c>
       <c r="D9">
-        <v>516.75</v>
+        <v>296.75</v>
       </c>
       <c r="E9">
-        <v>635.9</v>
-      </c>
-      <c r="F9">
-        <v>1726986</v>
-      </c>
-      <c r="G9">
-        <v>939272960</v>
+        <v>456.9</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>118.9</v>
+        <v>61.9</v>
       </c>
       <c r="J9" s="1">
-        <v>0.23</v>
+        <v>0.15670000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>20051231</v>
+        <v>19831231</v>
       </c>
       <c r="B10">
-        <v>438.29</v>
+        <v>449.5</v>
       </c>
       <c r="C10">
-        <v>541</v>
+        <v>509.25</v>
       </c>
       <c r="D10">
-        <v>409.79</v>
+        <v>374.5</v>
       </c>
       <c r="E10">
-        <v>517.20000000000005</v>
-      </c>
-      <c r="F10">
-        <v>413233</v>
-      </c>
-      <c r="G10">
-        <v>147886000</v>
+        <v>382.4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>78.91</v>
+        <v>-67.099999999999994</v>
       </c>
       <c r="J10" s="1">
-        <v>0.18</v>
+        <v>-0.14929999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>20041231</v>
+        <v>19841231</v>
       </c>
       <c r="B11">
-        <v>415.39</v>
+        <v>383</v>
       </c>
       <c r="C11">
-        <v>457.29</v>
+        <v>405.85</v>
       </c>
       <c r="D11">
-        <v>370.5</v>
+        <v>307.5</v>
       </c>
       <c r="E11">
-        <v>438</v>
-      </c>
-      <c r="F11">
-        <v>645789</v>
-      </c>
-      <c r="G11">
-        <v>1443797</v>
+        <v>309</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22.61</v>
+        <v>-74</v>
       </c>
       <c r="J11" s="1">
-        <v>5.4399999999999997E-2</v>
+        <v>-0.19320000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>20031231</v>
+        <v>19851231</v>
       </c>
       <c r="B12">
-        <v>347.79</v>
+        <v>305.5</v>
       </c>
       <c r="C12">
-        <v>418.6</v>
+        <v>340.9</v>
       </c>
       <c r="D12">
-        <v>318.75</v>
+        <v>284.25</v>
       </c>
       <c r="E12">
-        <v>415.6</v>
-      </c>
-      <c r="F12">
-        <v>392508</v>
+        <v>326.55</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>67.81</v>
+        <v>21.05</v>
       </c>
       <c r="J12" s="1">
-        <v>0.19500000000000001</v>
+        <v>6.8900000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>20021231</v>
+        <v>19891231</v>
       </c>
       <c r="B13">
-        <v>278.7</v>
+        <v>373.3</v>
       </c>
       <c r="C13">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="D13">
-        <v>275.75</v>
+        <v>372.3</v>
       </c>
       <c r="E13">
-        <v>348.29</v>
-      </c>
-      <c r="F13">
-        <v>197049</v>
+        <v>402.8</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>69.59</v>
+        <v>29.5</v>
       </c>
       <c r="J13" s="1">
-        <v>0.24970000000000001</v>
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>20011231</v>
+        <v>19901231</v>
       </c>
       <c r="B14">
-        <v>272.5</v>
+        <v>403.1</v>
       </c>
       <c r="C14">
-        <v>298.5</v>
+        <v>424.6</v>
       </c>
       <c r="D14">
-        <v>253.55</v>
+        <v>340</v>
       </c>
       <c r="E14">
-        <v>278.95</v>
-      </c>
-      <c r="F14">
-        <v>416192</v>
+        <v>392.9</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6.45</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>2.3699999999999999E-2</v>
+        <v>-2.53E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>20001231</v>
+        <v>19911231</v>
       </c>
       <c r="B15">
-        <v>288.45</v>
+        <v>391.7</v>
       </c>
       <c r="C15">
-        <v>319.10000000000002</v>
+        <v>409.2</v>
       </c>
       <c r="D15">
-        <v>262.05</v>
+        <v>342</v>
       </c>
       <c r="E15">
-        <v>272.05</v>
-      </c>
-      <c r="F15">
-        <v>532818</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
+        <v>354.1</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>-16.399999999999999</v>
+        <v>-37.6</v>
       </c>
       <c r="J15" s="1">
-        <v>-5.6899999999999999E-2</v>
+        <v>-9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>19991231</v>
+        <v>19921231</v>
       </c>
       <c r="B16">
-        <v>288.29000000000002</v>
+        <v>350.89</v>
       </c>
       <c r="C16">
-        <v>339</v>
+        <v>359.6</v>
       </c>
       <c r="D16">
-        <v>251</v>
+        <v>328</v>
       </c>
       <c r="E16">
-        <v>287.5</v>
+        <v>333.1</v>
       </c>
       <c r="F16">
-        <v>139466</v>
+        <v>255</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>-0.79</v>
+        <v>-17.79</v>
       </c>
       <c r="J16" s="1">
-        <v>-2.7000000000000001E-3</v>
+        <v>-5.0700000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>19981231</v>
+        <v>19931231</v>
       </c>
       <c r="B17">
-        <v>288.14</v>
+        <v>332.64</v>
       </c>
       <c r="C17">
-        <v>315.2</v>
+        <v>409.75</v>
       </c>
       <c r="D17">
-        <v>270.75</v>
+        <v>325.5</v>
       </c>
       <c r="E17">
-        <v>288.5</v>
+        <v>390.2</v>
       </c>
       <c r="F17">
-        <v>9870</v>
+        <v>90258</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>1525600</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.36</v>
+        <v>57.56</v>
       </c>
       <c r="J17" s="1">
-        <v>1.1999999999999999E-3</v>
+        <v>0.17299999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>19971231</v>
+        <v>19941231</v>
       </c>
       <c r="B18">
-        <v>367.75</v>
+        <v>390.45</v>
       </c>
       <c r="C18">
-        <v>368.89</v>
+        <v>398.6</v>
       </c>
       <c r="D18">
-        <v>281.10000000000002</v>
+        <v>368.2</v>
       </c>
       <c r="E18">
-        <v>289.29000000000002</v>
+        <v>383.2</v>
       </c>
       <c r="F18">
-        <v>3383</v>
+        <v>259</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>-78.459999999999994</v>
+        <v>-7.25</v>
       </c>
       <c r="J18" s="1">
-        <v>-0.21340000000000001</v>
+        <v>-1.8599999999999998E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>19961231</v>
+        <v>19951231</v>
       </c>
       <c r="B19">
-        <v>386.85</v>
+        <v>383</v>
       </c>
       <c r="C19">
-        <v>418.39</v>
+        <v>398.29</v>
       </c>
       <c r="D19">
-        <v>365.7</v>
+        <v>371</v>
       </c>
       <c r="E19">
-        <v>367.95</v>
+        <v>387.1</v>
       </c>
       <c r="F19">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>-18.899999999999999</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J19" s="1">
-        <v>-4.8899999999999999E-2</v>
+        <v>1.0699999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>19951231</v>
+        <v>19961231</v>
       </c>
       <c r="B20">
-        <v>383</v>
+        <v>386.85</v>
       </c>
       <c r="C20">
-        <v>398.29</v>
+        <v>418.39</v>
       </c>
       <c r="D20">
-        <v>371</v>
+        <v>365.7</v>
       </c>
       <c r="E20">
-        <v>387.1</v>
+        <v>367.95</v>
       </c>
       <c r="F20">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.0999999999999996</v>
+        <v>-18.899999999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>1.0699999999999999E-2</v>
+        <v>-4.8899999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>19941231</v>
+        <v>19971231</v>
       </c>
       <c r="B21">
-        <v>390.45</v>
+        <v>367.75</v>
       </c>
       <c r="C21">
-        <v>398.6</v>
+        <v>368.89</v>
       </c>
       <c r="D21">
-        <v>368.2</v>
+        <v>281.10000000000002</v>
       </c>
       <c r="E21">
-        <v>383.2</v>
+        <v>289.29000000000002</v>
       </c>
       <c r="F21">
-        <v>259</v>
+        <v>3383</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>-7.25</v>
+        <v>-78.459999999999994</v>
       </c>
       <c r="J21" s="1">
-        <v>-1.8599999999999998E-2</v>
+        <v>-0.21340000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>19931231</v>
+        <v>19981231</v>
       </c>
       <c r="B22">
-        <v>332.64</v>
+        <v>288.14</v>
       </c>
       <c r="C22">
-        <v>409.75</v>
+        <v>315.2</v>
       </c>
       <c r="D22">
-        <v>325.5</v>
+        <v>270.75</v>
       </c>
       <c r="E22">
-        <v>390.2</v>
+        <v>288.5</v>
       </c>
       <c r="F22">
-        <v>90258</v>
+        <v>9870</v>
       </c>
       <c r="G22">
-        <v>1525600</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>57.56</v>
+        <v>0.36</v>
       </c>
       <c r="J22" s="1">
-        <v>0.17299999999999999</v>
+        <v>1.1999999999999999E-3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>19921231</v>
+        <v>19991231</v>
       </c>
       <c r="B23">
-        <v>350.89</v>
+        <v>288.29000000000002</v>
       </c>
       <c r="C23">
-        <v>359.6</v>
+        <v>339</v>
       </c>
       <c r="D23">
-        <v>328</v>
+        <v>251</v>
       </c>
       <c r="E23">
-        <v>333.1</v>
+        <v>287.5</v>
       </c>
       <c r="F23">
-        <v>255</v>
+        <v>139466</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>-17.79</v>
+        <v>-0.79</v>
       </c>
       <c r="J23" s="1">
-        <v>-5.0700000000000002E-2</v>
+        <v>-2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>19911231</v>
+        <v>20001231</v>
       </c>
       <c r="B24">
-        <v>391.7</v>
+        <v>288.45</v>
       </c>
       <c r="C24">
-        <v>409.2</v>
+        <v>319.10000000000002</v>
       </c>
       <c r="D24">
-        <v>342</v>
+        <v>262.05</v>
       </c>
       <c r="E24">
-        <v>354.1</v>
+        <v>272.05</v>
+      </c>
+      <c r="F24">
+        <v>532818</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>-37.6</v>
+        <v>-16.399999999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>-9.6000000000000002E-2</v>
+        <v>-5.6899999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>19901231</v>
+        <v>20011231</v>
       </c>
       <c r="B25">
-        <v>403.1</v>
+        <v>272.5</v>
       </c>
       <c r="C25">
-        <v>424.6</v>
+        <v>298.5</v>
       </c>
       <c r="D25">
-        <v>340</v>
+        <v>253.55</v>
       </c>
       <c r="E25">
-        <v>392.9</v>
+        <v>278.95</v>
+      </c>
+      <c r="F25">
+        <v>416192</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>-10.199999999999999</v>
+        <v>6.45</v>
       </c>
       <c r="J25" s="1">
-        <v>-2.53E-2</v>
+        <v>2.3699999999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>19891231</v>
+        <v>20021231</v>
       </c>
       <c r="B26">
-        <v>373.3</v>
+        <v>278.7</v>
       </c>
       <c r="C26">
-        <v>421</v>
+        <v>355</v>
       </c>
       <c r="D26">
-        <v>372.3</v>
+        <v>275.75</v>
       </c>
       <c r="E26">
-        <v>402.8</v>
+        <v>348.29</v>
+      </c>
+      <c r="F26">
+        <v>197049</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>29.5</v>
+        <v>69.59</v>
       </c>
       <c r="J26" s="1">
-        <v>7.9000000000000001E-2</v>
+        <v>0.24970000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>19851231</v>
+        <v>20031231</v>
       </c>
       <c r="B27">
-        <v>305.5</v>
+        <v>347.79</v>
       </c>
       <c r="C27">
-        <v>340.9</v>
+        <v>418.6</v>
       </c>
       <c r="D27">
-        <v>284.25</v>
+        <v>318.75</v>
       </c>
       <c r="E27">
-        <v>326.55</v>
+        <v>415.6</v>
+      </c>
+      <c r="F27">
+        <v>392508</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>21.05</v>
+        <v>67.81</v>
       </c>
       <c r="J27" s="1">
-        <v>6.8900000000000003E-2</v>
+        <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>19841231</v>
+        <v>20041231</v>
       </c>
       <c r="B28">
-        <v>383</v>
+        <v>415.39</v>
       </c>
       <c r="C28">
-        <v>405.85</v>
+        <v>457.29</v>
       </c>
       <c r="D28">
-        <v>307.5</v>
+        <v>370.5</v>
       </c>
       <c r="E28">
-        <v>309</v>
+        <v>438</v>
+      </c>
+      <c r="F28">
+        <v>645789</v>
+      </c>
+      <c r="G28">
+        <v>1443797</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>-74</v>
+        <v>22.61</v>
       </c>
       <c r="J28" s="1">
-        <v>-0.19320000000000001</v>
+        <v>5.4399999999999997E-2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>19831231</v>
+        <v>20051231</v>
       </c>
       <c r="B29">
-        <v>449.5</v>
+        <v>438.29</v>
       </c>
       <c r="C29">
-        <v>509.25</v>
+        <v>541</v>
       </c>
       <c r="D29">
-        <v>374.5</v>
+        <v>409.79</v>
       </c>
       <c r="E29">
-        <v>382.4</v>
+        <v>517.20000000000005</v>
+      </c>
+      <c r="F29">
+        <v>413233</v>
+      </c>
+      <c r="G29">
+        <v>147886000</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>-67.099999999999994</v>
+        <v>78.91</v>
       </c>
       <c r="J29" s="1">
-        <v>-0.14929999999999999</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>19821231</v>
+        <v>20061231</v>
       </c>
       <c r="B30">
-        <v>395</v>
+        <v>517</v>
       </c>
       <c r="C30">
-        <v>481</v>
+        <v>730</v>
       </c>
       <c r="D30">
-        <v>296.75</v>
+        <v>516.75</v>
       </c>
       <c r="E30">
-        <v>456.9</v>
+        <v>635.9</v>
+      </c>
+      <c r="F30">
+        <v>1726986</v>
+      </c>
+      <c r="G30">
+        <v>939272960</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>61.9</v>
+        <v>118.9</v>
       </c>
       <c r="J30" s="1">
-        <v>0.15670000000000001</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <v>19811231</v>
+        <v>20071231</v>
       </c>
       <c r="B31">
-        <v>597.5</v>
+        <v>636.29999999999995</v>
       </c>
       <c r="C31">
-        <v>599.25</v>
+        <v>845.5</v>
       </c>
       <c r="D31">
-        <v>391.25</v>
+        <v>601.5</v>
       </c>
       <c r="E31">
-        <v>397.5</v>
+        <v>832.8</v>
+      </c>
+      <c r="F31">
+        <v>2570368</v>
+      </c>
+      <c r="G31">
+        <v>1803042688</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>-200</v>
+        <v>196.5</v>
       </c>
       <c r="J31" s="1">
-        <v>-0.3347</v>
+        <v>0.30880000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>19801231</v>
+        <v>20081231</v>
       </c>
       <c r="B32">
-        <v>559.5</v>
+        <v>832.95</v>
       </c>
       <c r="C32">
-        <v>850</v>
+        <v>1032.0899999999999</v>
       </c>
       <c r="D32">
-        <v>481.5</v>
+        <v>681.75</v>
       </c>
       <c r="E32">
-        <v>589.75</v>
+        <v>880.15</v>
+      </c>
+      <c r="F32">
+        <v>9691620</v>
+      </c>
+      <c r="G32">
+        <v>8153780736</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>30.25</v>
+        <v>47.2</v>
       </c>
       <c r="J32" s="1">
-        <v>5.4100000000000002E-2</v>
+        <v>5.67E-2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>19791231</v>
+        <v>20091231</v>
       </c>
       <c r="B33">
-        <v>226.8</v>
+        <v>880.47</v>
       </c>
       <c r="C33">
-        <v>512</v>
+        <v>1226.6500000000001</v>
       </c>
       <c r="D33">
-        <v>216.85</v>
+        <v>810.1</v>
       </c>
       <c r="E33">
-        <v>512</v>
+        <v>1096.4000000000001</v>
+      </c>
+      <c r="F33">
+        <v>13642564</v>
+      </c>
+      <c r="G33">
+        <v>13508929536</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>285.2</v>
+        <v>215.93</v>
       </c>
       <c r="J33" s="1">
-        <v>1.2575000000000001</v>
+        <v>0.2452</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>19781231</v>
+        <v>20101231</v>
       </c>
       <c r="B34">
-        <v>169.2</v>
+        <v>1096.8499999999999</v>
       </c>
       <c r="C34">
-        <v>242.75</v>
+        <v>1430.85</v>
       </c>
       <c r="D34">
-        <v>160.9</v>
+        <v>1044.2</v>
       </c>
       <c r="E34">
-        <v>226</v>
+        <v>1418.47</v>
+      </c>
+      <c r="F34">
+        <v>7762754</v>
+      </c>
+      <c r="G34">
+        <v>9373114368</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>56.8</v>
+        <v>321.62</v>
       </c>
       <c r="J34" s="1">
-        <v>0.3357</v>
+        <v>0.29320000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>19771231</v>
+        <v>20111231</v>
       </c>
       <c r="B35">
-        <v>135.69999999999999</v>
+        <v>1418.49</v>
       </c>
       <c r="C35">
-        <v>167.95</v>
+        <v>1920.78</v>
       </c>
       <c r="D35">
-        <v>121</v>
+        <v>1307.95</v>
       </c>
       <c r="E35">
-        <v>164.95</v>
+        <v>1564.73</v>
+      </c>
+      <c r="F35">
+        <v>8958501</v>
+      </c>
+      <c r="G35">
+        <v>14514679808</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>29.25</v>
+        <v>146.24</v>
       </c>
       <c r="J35" s="1">
-        <v>0.2155</v>
+        <v>0.1031</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
-        <v>19761231</v>
+        <v>20121231</v>
       </c>
       <c r="B36">
-        <v>140.35</v>
+        <v>1560.09</v>
       </c>
       <c r="C36">
-        <v>140.35</v>
+        <v>1795.75</v>
       </c>
       <c r="D36">
-        <v>103.5</v>
+        <v>1526.88</v>
       </c>
       <c r="E36">
-        <v>134.5</v>
+        <v>1675.76</v>
+      </c>
+      <c r="F36">
+        <v>12952427</v>
+      </c>
+      <c r="G36">
+        <v>21637009408</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>-5.85</v>
+        <v>115.67</v>
       </c>
       <c r="J36" s="1">
-        <v>-4.1700000000000001E-2</v>
+        <v>7.4099999999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
-        <v>19751231</v>
+        <v>20131231</v>
       </c>
       <c r="B37">
-        <v>175</v>
+        <v>1673.2</v>
       </c>
       <c r="C37">
-        <v>185.25</v>
+        <v>1696.51</v>
       </c>
       <c r="D37">
-        <v>128.75</v>
+        <v>1180.1400000000001</v>
       </c>
       <c r="E37">
-        <v>140.25</v>
+        <v>1289.81</v>
+      </c>
+      <c r="F37">
+        <v>8006766</v>
+      </c>
+      <c r="G37">
+        <v>11447024640</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>-34.75</v>
+        <v>-383.39</v>
       </c>
       <c r="J37" s="1">
-        <v>-0.1986</v>
+        <v>-0.2291</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:J37">
+    <sortCondition ref="A37"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
